--- a/biology/Botanique/Melosira/Melosira.xlsx
+++ b/biology/Botanique/Melosira/Melosira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melosira est un genre d’algues de la famille des Melosiraceae, dans la division des Bacillariophyta (diatomées).
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Melosira, est formé du préfixe melo-, « en référence au melon », et du suffixe -sir, « corde ; chaine », en référence à la structure des colonies de cette diatomée, qui font penser à de petites chaines de melons.
 </t>
@@ -542,12 +556,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Melosira a pour synonymes :
-Gaillionella Bory de Saint-Vincent, 1826[2]
-Gaillonella J.B.M. Bory de Saint-Vincent, 1825[2]
-Gallionella[2]</t>
+Gaillionella Bory de Saint-Vincent, 1826
+Gaillonella J.B.M. Bory de Saint-Vincent, 1825
+Gallionella</t>
         </is>
       </c>
     </row>
@@ -575,9 +591,11 @@
           <t>Liste des espèces, formes et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (6 mars 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (6 mars 2021) :
 forme Melosira granulata f. spiralis Grunow
 variété Melosira distans var. africana O. Müll.
 variété Melosira distans var. laevissima Grunow
@@ -614,10 +632,10 @@
 Melosira sulcata Ehr &amp; Kuetz
 Melosira undulata (Ehrenb.) Kütz.
 Melosira varians C. Agardh
-Selon Paleobiology Database                   (6 mars 2021)[4] :
+Selon Paleobiology Database                   (6 mars 2021) :
 Melosira complexa
 Melosira westii
-Selon World Register of Marine Species                               (6 mars 2021)[2] :
+Selon World Register of Marine Species                               (6 mars 2021) :
 Melosira accinctus Hohn &amp; Hellerman, 1963
 Melosira aculeifera Scheschukova-Poretzkaya in Scheschukova-Poretzkaya &amp; Moissejeva, 1964
 Melosira adeliae Manguin, 1957
